--- a/112-2/ELECTRICAL ENGINEERING FUNDAMENTALS II/Lab/Lab 9/Lab 9.xlsx
+++ b/112-2/ELECTRICAL ENGINEERING FUNDAMENTALS II/Lab/Lab 9/Lab 9.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FCU\112-2\ELECTRICAL ENGINEERING FUNDAMENTALS II\Lab\Lab 9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A037DF9-DAE6-4B25-9ED1-A239298E7D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1342635-B85F-479D-BC99-0D79485EC866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,6 +80,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,7 +133,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -416,7 +419,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F13" sqref="F13:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -488,10 +491,10 @@
       <c r="E3" s="1">
         <v>1.9700000000000001E-5</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>-0.51483999999999996</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <v>0.67889999999999995</v>
       </c>
       <c r="H3"/>
@@ -516,10 +519,10 @@
       <c r="E4" s="1">
         <v>2.5599999999999999E-5</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>7.2139999999999996E-2</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <v>6.8919999999999995E-2</v>
       </c>
       <c r="H4"/>
@@ -589,7 +592,7 @@
       <c r="B8" s="1">
         <v>309</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <f>D8/E8</f>
         <v>240.28571428571431</v>
       </c>
@@ -602,7 +605,7 @@
       <c r="F8" s="1">
         <v>5.3802000000000003</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="3">
         <v>0.62790999999999997</v>
       </c>
       <c r="H8"/>
@@ -616,7 +619,7 @@
       <c r="B9" s="1">
         <v>221</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <f>D9/E9</f>
         <v>198.12903225806451</v>
       </c>
@@ -629,7 +632,7 @@
       <c r="F9" s="1">
         <v>5.9146000000000001</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="3">
         <v>0.60602999999999996</v>
       </c>
       <c r="H9"/>
@@ -695,7 +698,7 @@
       <c r="B13" s="1">
         <v>309</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <f>D13/E13</f>
         <v>295.48648648648646</v>
       </c>
@@ -705,10 +708,10 @@
       <c r="E13" s="1">
         <v>7.4000000000000003E-6</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="3">
         <v>4.4462000000000002</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="3">
         <v>0.65363000000000004</v>
       </c>
       <c r="H13"/>
@@ -722,7 +725,7 @@
       <c r="B14" s="1">
         <v>221</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <f>D14/E14</f>
         <v>186.25641025641028</v>
       </c>
@@ -732,10 +735,10 @@
       <c r="E14" s="1">
         <v>1.17E-5</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="3">
         <v>4.5018000000000002</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="3">
         <v>0.61004999999999998</v>
       </c>
       <c r="H14"/>
